--- a/data-example/2020-02-23.xlsx
+++ b/data-example/2020-02-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/corona-sickbed/data-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/corona-sickbed/data-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2558A6-A886-644A-9C1D-4DCF1C296114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC44AC-9274-0143-8421-D7F93C2DF01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3984C9F9-431F-8A46-BD08-568D0A052F6A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{3984C9F9-431F-8A46-BD08-568D0A052F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
   <si>
     <t>병상번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최중증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +661,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -735,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -773,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -1817,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s">
         <v>20</v>

--- a/data-example/2020-02-23.xlsx
+++ b/data-example/2020-02-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/corona-sickbed/data-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC44AC-9274-0143-8421-D7F93C2DF01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3166C0-4E5B-B348-BF20-463D37734BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{3984C9F9-431F-8A46-BD08-568D0A052F6A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t>병상번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>최중증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +673,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1005,6 +1017,18 @@
       <c r="E11" t="s">
         <v>76</v>
       </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
       <c r="J11" t="s">
         <v>30</v>
       </c>

--- a/data-example/2020-02-23.xlsx
+++ b/data-example/2020-02-23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/corona-sickbed/data-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Google_drive/01-data-science/02-applications/corona-sickbed/data-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3166C0-4E5B-B348-BF20-463D37734BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68D13E-1C10-134E-BE6B-F3BF73E81097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{3984C9F9-431F-8A46-BD08-568D0A052F6A}"/>
+    <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{3984C9F9-431F-8A46-BD08-568D0A052F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,223 +83,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김수원</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>중증</t>
+  </si>
+  <si>
+    <t>기저질환</t>
+  </si>
+  <si>
+    <t>의정부</t>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>이화성</t>
+  </si>
+  <si>
+    <t>성인</t>
+  </si>
+  <si>
+    <t>평택송탄</t>
+  </si>
+  <si>
+    <t>확진</t>
+  </si>
+  <si>
+    <t>박오선</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>중등도</t>
+  </si>
+  <si>
+    <t>성남분당</t>
+  </si>
+  <si>
+    <t>김성남</t>
+  </si>
+  <si>
+    <t>경증</t>
+  </si>
+  <si>
+    <t>성남수정</t>
+  </si>
+  <si>
+    <t>COVID외 감염병</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>김용인</t>
+  </si>
+  <si>
+    <t>용인수지</t>
+  </si>
+  <si>
+    <t>박광주</t>
+  </si>
+  <si>
+    <t>수원팔달</t>
+  </si>
+  <si>
+    <t>명지</t>
+  </si>
+  <si>
+    <t>김의정부</t>
+  </si>
+  <si>
+    <t>혈액투석</t>
+  </si>
+  <si>
+    <t>안양</t>
+  </si>
+  <si>
+    <t>한동두천</t>
+  </si>
+  <si>
+    <t>평촌</t>
+  </si>
+  <si>
+    <t>이양주</t>
+  </si>
+  <si>
+    <t>부천오정</t>
+  </si>
+  <si>
+    <t>안성</t>
+  </si>
+  <si>
+    <t>박연천군</t>
+  </si>
+  <si>
+    <t>파주</t>
+  </si>
+  <si>
+    <t>박안양</t>
+  </si>
+  <si>
+    <t>포천</t>
+  </si>
+  <si>
+    <t>서과천</t>
+  </si>
+  <si>
+    <t>남양주풍양</t>
+  </si>
+  <si>
+    <t>이의왕</t>
+  </si>
+  <si>
+    <t>용인기흥</t>
+  </si>
+  <si>
+    <t>수원</t>
+  </si>
+  <si>
+    <t>곽군포</t>
+  </si>
+  <si>
+    <t>하남</t>
+  </si>
+  <si>
+    <t>이천</t>
+  </si>
+  <si>
+    <t>정평택</t>
+  </si>
+  <si>
+    <t>여주</t>
+  </si>
+  <si>
+    <t>최안성</t>
+  </si>
+  <si>
+    <t>성남</t>
+  </si>
+  <si>
+    <t>윤고양</t>
+  </si>
+  <si>
+    <t>고양일산서구</t>
+  </si>
+  <si>
+    <t>조김포</t>
+  </si>
+  <si>
+    <t>수원영통</t>
+  </si>
+  <si>
+    <t>김남양주</t>
+  </si>
+  <si>
+    <t>시흥</t>
+  </si>
+  <si>
+    <t>조구리</t>
+  </si>
+  <si>
+    <t>박양평</t>
+  </si>
+  <si>
+    <t>최안산</t>
+  </si>
+  <si>
+    <t>가평</t>
+  </si>
+  <si>
+    <t>정시흥</t>
+  </si>
+  <si>
+    <t>고양일산동구</t>
+  </si>
+  <si>
+    <t>김부천</t>
+  </si>
+  <si>
+    <t>구리</t>
+  </si>
+  <si>
+    <t>나영준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최중증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>분당</t>
-  </si>
-  <si>
-    <t>김수원</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>중증</t>
-  </si>
-  <si>
-    <t>기저질환</t>
-  </si>
-  <si>
-    <t>의정부</t>
-  </si>
-  <si>
-    <t>의사</t>
-  </si>
-  <si>
-    <t>이화성</t>
-  </si>
-  <si>
-    <t>성인</t>
-  </si>
-  <si>
-    <t>평택송탄</t>
-  </si>
-  <si>
-    <t>확진</t>
-  </si>
-  <si>
-    <t>박오선</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>중등도</t>
-  </si>
-  <si>
-    <t>성남분당</t>
-  </si>
-  <si>
-    <t>김성남</t>
-  </si>
-  <si>
-    <t>경증</t>
-  </si>
-  <si>
-    <t>성남수정</t>
-  </si>
-  <si>
-    <t>COVID외 감염병</t>
-  </si>
-  <si>
-    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수도</t>
-  </si>
-  <si>
-    <t>김용인</t>
-  </si>
-  <si>
-    <t>용인수지</t>
-  </si>
-  <si>
-    <t>박광주</t>
-  </si>
-  <si>
-    <t>수원팔달</t>
-  </si>
-  <si>
-    <t>명지</t>
-  </si>
-  <si>
-    <t>김의정부</t>
-  </si>
-  <si>
-    <t>혈액투석</t>
-  </si>
-  <si>
-    <t>안양</t>
-  </si>
-  <si>
-    <t>한동두천</t>
-  </si>
-  <si>
-    <t>평촌</t>
-  </si>
-  <si>
-    <t>이양주</t>
-  </si>
-  <si>
-    <t>부천오정</t>
-  </si>
-  <si>
-    <t>안성</t>
-  </si>
-  <si>
-    <t>박연천군</t>
-  </si>
-  <si>
-    <t>파주</t>
-  </si>
-  <si>
-    <t>박안양</t>
-  </si>
-  <si>
-    <t>포천</t>
-  </si>
-  <si>
-    <t>서과천</t>
-  </si>
-  <si>
-    <t>남양주풍양</t>
-  </si>
-  <si>
-    <t>이의왕</t>
-  </si>
-  <si>
-    <t>용인기흥</t>
-  </si>
-  <si>
-    <t>수원</t>
-  </si>
-  <si>
-    <t>곽군포</t>
-  </si>
-  <si>
-    <t>하남</t>
-  </si>
-  <si>
-    <t>이천</t>
-  </si>
-  <si>
-    <t>정평택</t>
-  </si>
-  <si>
-    <t>여주</t>
-  </si>
-  <si>
-    <t>최안성</t>
-  </si>
-  <si>
-    <t>성남</t>
-  </si>
-  <si>
-    <t>윤고양</t>
-  </si>
-  <si>
-    <t>고양일산서구</t>
-  </si>
-  <si>
-    <t>조김포</t>
-  </si>
-  <si>
-    <t>수원영통</t>
-  </si>
-  <si>
-    <t>김남양주</t>
-  </si>
-  <si>
-    <t>시흥</t>
-  </si>
-  <si>
-    <t>조구리</t>
-  </si>
-  <si>
-    <t>박양평</t>
-  </si>
-  <si>
-    <t>최안산</t>
-  </si>
-  <si>
-    <t>가평</t>
-  </si>
-  <si>
-    <t>정시흥</t>
-  </si>
-  <si>
-    <t>고양일산동구</t>
-  </si>
-  <si>
-    <t>김부천</t>
-  </si>
-  <si>
-    <t>구리</t>
-  </si>
-  <si>
-    <t>나영준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최중증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +675,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -683,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -730,7 +732,7 @@
         <v>43884</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -739,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2">
         <v>82</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -768,7 +770,7 @@
         <v>43884</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -777,28 +779,28 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -809,7 +811,7 @@
         <v>43884</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -818,28 +820,28 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4">
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -847,7 +849,7 @@
         <v>43884</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -856,28 +858,28 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -885,7 +887,7 @@
         <v>43884</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -894,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -902,7 +904,7 @@
         <v>43884</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -913,7 +915,7 @@
         <v>43884</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -924,7 +926,7 @@
         <v>43884</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -933,28 +935,28 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -965,7 +967,7 @@
         <v>43884</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -974,28 +976,28 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>36</v>
@@ -1006,7 +1008,7 @@
         <v>43884</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1015,22 +1017,22 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1038,7 +1040,7 @@
         <v>43884</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1049,7 +1051,7 @@
         <v>43884</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1060,7 +1062,7 @@
         <v>43884</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1071,7 +1073,7 @@
         <v>43884</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1082,7 +1084,7 @@
         <v>43884</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1091,28 +1093,28 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1120,7 +1122,7 @@
         <v>43884</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1129,28 +1131,28 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1158,7 +1160,7 @@
         <v>43884</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1167,28 +1169,28 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <v>37</v>
@@ -1199,7 +1201,7 @@
         <v>43884</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1210,7 +1212,7 @@
         <v>43884</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1221,7 +1223,7 @@
         <v>43884</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1232,7 +1234,7 @@
         <v>43884</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1243,7 +1245,7 @@
         <v>43884</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1254,7 +1256,7 @@
         <v>43884</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -1265,7 +1267,7 @@
         <v>43884</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1274,28 +1276,28 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1303,7 +1305,7 @@
         <v>43884</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1312,28 +1314,28 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26">
         <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1341,7 +1343,7 @@
         <v>43884</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1350,25 +1352,25 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1376,7 +1378,7 @@
         <v>43884</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1385,25 +1387,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1411,7 +1413,7 @@
         <v>43884</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1422,7 +1424,7 @@
         <v>43884</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1433,7 +1435,7 @@
         <v>43884</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1444,7 +1446,7 @@
         <v>43884</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -1455,7 +1457,7 @@
         <v>43884</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1464,28 +1466,28 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1493,7 +1495,7 @@
         <v>43884</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1504,7 +1506,7 @@
         <v>43884</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1513,28 +1515,28 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35">
         <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1542,7 +1544,7 @@
         <v>43884</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1551,28 +1553,28 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1580,7 +1582,7 @@
         <v>43884</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1589,28 +1591,28 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1618,7 +1620,7 @@
         <v>43884</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1629,7 +1631,7 @@
         <v>43884</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1640,7 +1642,7 @@
         <v>43884</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1649,28 +1651,28 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40">
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1678,7 +1680,7 @@
         <v>43884</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1687,28 +1689,28 @@
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1716,7 +1718,7 @@
         <v>43884</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1725,25 +1727,25 @@
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42">
         <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1751,7 +1753,7 @@
         <v>43884</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1760,28 +1762,28 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1789,7 +1791,7 @@
         <v>43884</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1798,25 +1800,25 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1824,7 +1826,7 @@
         <v>43884</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1833,28 +1835,28 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" t="s">
         <v>17</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1862,7 +1864,7 @@
         <v>43884</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1871,25 +1873,25 @@
         <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46">
         <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1897,7 +1899,7 @@
         <v>43884</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>6</v>
